--- a/integrator/test/Proba20c.xlsx
+++ b/integrator/test/Proba20c.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\RABOTNA\UE\rechnik\proba20\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8691F52E-A16C-4DE4-82F0-A07DF29B21CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,28 +22,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="436">
   <si>
-    <t>1/W168a14</t>
-  </si>
-  <si>
-    <t>вьꙁмогл</t>
-  </si>
-  <si>
-    <t>мы брьньн  ꙁемⷧ҇ьн• вьꙁмогл</t>
-  </si>
-  <si>
-    <t>въꙁмощ</t>
-  </si>
-  <si>
-    <t>ἠδυνήθημεν</t>
-  </si>
-  <si>
-    <t>δύναμαι</t>
-  </si>
-  <si>
-    <t>1/W168a15</t>
-  </si>
-  <si>
-    <t>бхомь</t>
+    <t xml:space="preserve">1/W168a14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вьꙁмогл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мы брьньн  ꙁемⷧ҇ьн• вьꙁмогл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въꙁмощ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἠδυνήθημεν</t>
+  </si>
+  <si>
+    <t xml:space="preserve">δύναμαι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168a15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бхомь</t>
   </si>
   <si>
     <t xml:space="preserve">бхомь стрьпѣтї• </t>
@@ -57,10 +52,10 @@
     <t xml:space="preserve">бꙑт </t>
   </si>
   <si>
-    <t>gramm.</t>
-  </si>
-  <si>
-    <t>pass.</t>
+    <t xml:space="preserve">gramm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass.</t>
   </si>
   <si>
     <r>
@@ -81,557 +76,557 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>WH</t>
+      <t xml:space="preserve">WH</t>
     </r>
   </si>
   <si>
-    <t>1/6c8</t>
-  </si>
-  <si>
-    <t>всѣмъ</t>
-  </si>
-  <si>
-    <t>всѣмъ лвкомъ•</t>
-  </si>
-  <si>
-    <t>вьсь</t>
-  </si>
-  <si>
-    <t>≈ вьсѣмъ</t>
-  </si>
-  <si>
-    <t>καθόλου</t>
-  </si>
-  <si>
-    <t>1/8b5</t>
-  </si>
-  <si>
-    <t>поноужденъ</t>
-  </si>
-  <si>
-    <t>неволю• поноужденъ</t>
-  </si>
-  <si>
-    <t>понѹдт</t>
-  </si>
-  <si>
-    <t>ἀναγκασθήσεται</t>
-  </si>
-  <si>
-    <t>ἀναγκάζω</t>
-  </si>
-  <si>
-    <t>1/8b6</t>
-  </si>
-  <si>
-    <t>боудеть</t>
-  </si>
-  <si>
-    <t>1/4b17</t>
-  </si>
-  <si>
-    <t>ₓ</t>
-  </si>
-  <si>
-    <t>ὁ</t>
-  </si>
-  <si>
-    <t>слово</t>
-  </si>
-  <si>
-    <t>рекъ•  слово плъть</t>
-  </si>
-  <si>
-    <t>Λόγος</t>
-  </si>
-  <si>
-    <t>λόγος</t>
-  </si>
-  <si>
-    <t>плъть</t>
-  </si>
-  <si>
-    <t>σὰρξ</t>
-  </si>
-  <si>
-    <t>σαρξ</t>
-  </si>
-  <si>
-    <t>1/4b18</t>
-  </si>
-  <si>
-    <t>бꙑсть•</t>
-  </si>
-  <si>
-    <t>бꙑсть• а дроугое</t>
-  </si>
-  <si>
-    <t>бꙑт</t>
-  </si>
-  <si>
-    <t>ἐγένετο</t>
-  </si>
-  <si>
-    <t>γίγνομαι</t>
-  </si>
-  <si>
-    <t>03/11b02</t>
-  </si>
-  <si>
-    <t>погребеноу</t>
-  </si>
-  <si>
-    <t>погребеноу емꙋ</t>
-  </si>
-  <si>
-    <t>погрет</t>
-  </si>
-  <si>
-    <t>ταφῆναι</t>
-  </si>
-  <si>
-    <t>τάπτω</t>
-  </si>
-  <si>
-    <t>03/11b03</t>
-  </si>
-  <si>
-    <t>бꙑт•</t>
-  </si>
-  <si>
-    <t>бꙑт• нъ да н-</t>
-  </si>
-  <si>
-    <t>1/4b15</t>
-  </si>
-  <si>
-    <t>по</t>
-  </si>
-  <si>
-    <t>се въ малѣ• по</t>
+    <t xml:space="preserve">1/6c8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">всѣмъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">всѣмъ лвкомъ•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вьсь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">≈ вьсѣмъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">καθόλου</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поноужденъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">неволю• поноужденъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">понѹдт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀναγκασθήσεται</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀναγκάζω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">боудеть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4b17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ₓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ὁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">слово</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рекъ•  слово плъть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Λόγος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">λόγος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">плъть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σὰρξ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σαρξ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4b18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бꙑсть•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бꙑсть• а дроугое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бꙑт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἐγένετο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">γίγνομαι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/11b02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">погребеноу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">погребеноу емꙋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">погрет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ταφῆναι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τάπτω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/11b03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бꙑт•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бꙑт• нъ да н-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4b15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по</t>
+  </si>
+  <si>
+    <t xml:space="preserve">се въ малѣ• по</t>
   </si>
   <si>
     <t xml:space="preserve">по </t>
   </si>
   <si>
-    <t>по + Dat.</t>
-  </si>
-  <si>
-    <t>μετὰ</t>
-  </si>
-  <si>
-    <t>μετά</t>
-  </si>
-  <si>
-    <t>μετά + Acc.</t>
-  </si>
-  <si>
-    <t>1/8c3</t>
-  </si>
-  <si>
-    <t>не по плътьсцѣ</t>
+    <t xml:space="preserve">по + Dat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μετὰ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μετά</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μετά + Acc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не по плътьсцѣ</t>
   </si>
   <si>
     <t xml:space="preserve">μετά </t>
   </si>
   <si>
-    <t>1/W168c2</t>
-  </si>
-  <si>
-    <t>сь сть проповѣда по мнѣ•</t>
-  </si>
-  <si>
-    <t>μετ’</t>
-  </si>
-  <si>
-    <t>μετά</t>
-  </si>
-  <si>
-    <t>1/W168c7</t>
-  </si>
-  <si>
-    <t>мене</t>
-  </si>
-  <si>
-    <t>мене соуща послѣд створ</t>
-  </si>
-  <si>
-    <t>аꙁъ</t>
-  </si>
-  <si>
-    <t>μὲν</t>
+    <t xml:space="preserve">1/W168c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сь сть проповѣда по мнѣ•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μετ’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μετά</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мене</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мене соуща послѣд створ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аꙁъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μὲν</t>
   </si>
   <si>
     <t xml:space="preserve">με </t>
   </si>
   <si>
-    <t>ἐγώ</t>
-  </si>
-  <si>
-    <t>1/8a3</t>
-  </si>
-  <si>
-    <t>толко•</t>
-  </si>
-  <si>
-    <t>осташа толко•</t>
-  </si>
-  <si>
-    <t>толкъ</t>
-  </si>
-  <si>
-    <t>τοσοῦτοι</t>
-  </si>
-  <si>
-    <t>τοσоῦτος</t>
-  </si>
-  <si>
-    <t>1/W168c17</t>
-  </si>
-  <si>
-    <t>стоен</t>
-  </si>
-  <si>
-    <t>всѣмь прѣстое•  по стоен</t>
-  </si>
-  <si>
-    <t>стоен</t>
-  </si>
-  <si>
-    <t>ὑπερκλύσαι</t>
-  </si>
-  <si>
-    <t>ὑπερκλύζω</t>
-  </si>
-  <si>
-    <t>inf.</t>
+    <t xml:space="preserve">ἐγώ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">толко•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">осташа толко•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">толкъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τοσοῦτοι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τοσоῦτος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168c17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стоен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">всѣмь прѣстое•  по стоен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стоен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ὑπερκλύσαι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ὑπερκλύζω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inf.</t>
   </si>
   <si>
     <t xml:space="preserve">ὑπερβλύσαι </t>
   </si>
   <si>
-    <t>ὑπερβλύω</t>
-  </si>
-  <si>
-    <t>1/6b7</t>
-  </si>
-  <si>
-    <t>толка</t>
-  </si>
-  <si>
-    <t>вѣроуть како толка</t>
-  </si>
-  <si>
-    <t>τοσαῦτα</t>
-  </si>
-  <si>
-    <t>прѣстое</t>
-  </si>
-  <si>
-    <t>прѣстот</t>
-  </si>
-  <si>
-    <t>ὑπερκλύζων</t>
+    <t xml:space="preserve">ὑπερβλύω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6b7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">толка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вѣроуть како толка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τοσαῦτα</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прѣстое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прѣстот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ὑπερκλύζων</t>
   </si>
   <si>
     <t xml:space="preserve">ὑπερβλύζων </t>
   </si>
   <si>
-    <t>1/5a5</t>
-  </si>
-  <si>
-    <t>не</t>
-  </si>
-  <si>
-    <t>не бѣ ꙗвленъ•</t>
-  </si>
-  <si>
-    <t>не бꙑт ꙗвлнъ</t>
-  </si>
-  <si>
-    <t>ἠγνοεῖτο</t>
-  </si>
-  <si>
-    <t>ἀγνοέω</t>
-  </si>
-  <si>
-    <t>бѣ</t>
-  </si>
-  <si>
-    <t>ꙗвленъ•</t>
-  </si>
-  <si>
-    <t>ꙗвт</t>
-  </si>
-  <si>
-    <t>1/W168c20</t>
-  </si>
-  <si>
-    <t>τῆς</t>
-  </si>
-  <si>
-    <t>ветьхоую</t>
-  </si>
-  <si>
-    <t>прхомь• ꙁа ветьхоую</t>
-  </si>
-  <si>
-    <t>ветъхъ</t>
-  </si>
-  <si>
-    <t>πάλαι</t>
-  </si>
-  <si>
-    <t>ὁ πάλαι</t>
+    <t xml:space="preserve">1/5a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не бѣ ꙗвленъ•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не бꙑт ꙗвлнъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἠγνοεῖτο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀγνοέω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бѣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ꙗвленъ•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ꙗвт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168c20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τῆς</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ветьхоую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прхомь• ꙁа ветьхоую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ветъхъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">πάλαι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ὁ πάλαι</t>
   </si>
   <si>
     <t xml:space="preserve">παλαιᾶς </t>
   </si>
   <si>
-    <t>1/W168a13</t>
-  </si>
-  <si>
-    <t>ταῖς</t>
-  </si>
-  <si>
-    <t>вышьнмь</t>
-  </si>
-  <si>
-    <t>вышьнмь сламь•</t>
-  </si>
-  <si>
-    <t>вꙑшьнь</t>
-  </si>
-  <si>
-    <t>ἄνω</t>
-  </si>
-  <si>
-    <t>ὁ ἄνω</t>
-  </si>
-  <si>
-    <t>1/W167c19</t>
-  </si>
-  <si>
-    <t>раба•</t>
-  </si>
-  <si>
-    <t>л раба• л свободн• л</t>
-  </si>
-  <si>
-    <t>рабъ</t>
-  </si>
-  <si>
-    <t>δοῦλοι</t>
-  </si>
-  <si>
-    <t>δοῦλος</t>
-  </si>
-  <si>
-    <t>свободн•</t>
-  </si>
-  <si>
-    <t>свободьнъ</t>
-  </si>
-  <si>
-    <t>ἐλεύθεροι</t>
-  </si>
-  <si>
-    <t>ἐλεύθερος</t>
-  </si>
-  <si>
-    <t>1/W167c21</t>
-  </si>
-  <si>
-    <t>немоудр•</t>
-  </si>
-  <si>
-    <t>л моудр• л немоудр•</t>
-  </si>
-  <si>
-    <t>немѫдръ</t>
-  </si>
-  <si>
-    <t>ἄσοφοι</t>
-  </si>
-  <si>
-    <t>ἄσοφος</t>
-  </si>
-  <si>
-    <t>1/W167c22</t>
-  </si>
-  <si>
-    <t>богат•</t>
-  </si>
-  <si>
-    <t>л богат• л нщ• л</t>
-  </si>
-  <si>
-    <t>богатъ</t>
-  </si>
-  <si>
-    <t>πλούσιοι</t>
-  </si>
-  <si>
-    <t>πλούσιος</t>
-  </si>
-  <si>
-    <t>нщ•</t>
-  </si>
-  <si>
-    <t>нщь</t>
-  </si>
-  <si>
-    <t>πένητες</t>
-  </si>
-  <si>
-    <t>πένης</t>
-  </si>
-  <si>
-    <t>1/W167c23</t>
-  </si>
-  <si>
-    <t>кнеꙁ•</t>
-  </si>
-  <si>
-    <t>кнеꙁ• л гроуб• вс тожⷣе</t>
-  </si>
-  <si>
-    <t>кънѧꙃъ</t>
-  </si>
-  <si>
-    <t>ἄρχοντες</t>
-  </si>
-  <si>
-    <t>ἄρχων</t>
-  </si>
-  <si>
-    <t>тѣмь WH</t>
-  </si>
-  <si>
-    <t>тѣмь л</t>
-  </si>
-  <si>
-    <t>1/6a10</t>
-  </si>
-  <si>
-    <t>тѣмь</t>
-  </si>
-  <si>
-    <t>тѣмь л вдмо</t>
-  </si>
-  <si>
-    <t>тѣмь л</t>
-  </si>
-  <si>
-    <t>κἂν</t>
-  </si>
-  <si>
-    <t>κἄν</t>
-  </si>
-  <si>
-    <t>л WH</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t>вдмо</t>
-  </si>
-  <si>
-    <t>вдмъ</t>
-  </si>
-  <si>
-    <t>ὁρατὸν</t>
-  </si>
-  <si>
-    <t>ὁρατός</t>
-  </si>
-  <si>
-    <t>1/6a11</t>
-  </si>
-  <si>
-    <t>сть</t>
-  </si>
-  <si>
-    <t>сть л раꙁѹмьно</t>
-  </si>
-  <si>
-    <t>ᾖ</t>
-  </si>
-  <si>
-    <t>εἰμί</t>
-  </si>
-  <si>
-    <t>1/4c7</t>
-  </si>
-  <si>
-    <t>словесехъ</t>
-  </si>
-  <si>
-    <t>λόγοις</t>
-  </si>
-  <si>
-    <t>1/8a13</t>
-  </si>
-  <si>
-    <t>не стьствомъ</t>
-  </si>
-  <si>
-    <t>οὐ</t>
-  </si>
-  <si>
-    <t>Instr.</t>
-  </si>
-  <si>
-    <t>παρὰ</t>
-  </si>
-  <si>
-    <t>παρά</t>
-  </si>
-  <si>
-    <t>παρά + Acc.</t>
-  </si>
-  <si>
-    <t>1/8a16</t>
-  </si>
-  <si>
-    <t>1/W168a19</t>
-  </si>
-  <si>
-    <t>παρά</t>
-  </si>
-  <si>
-    <t>παρά + Dat.</t>
-  </si>
-  <si>
-    <t>вь WGH</t>
-  </si>
-  <si>
-    <t>въ</t>
-  </si>
-  <si>
-    <t>въ + Loc.</t>
-  </si>
-  <si>
-    <t>1/7d1</t>
-  </si>
-  <si>
-    <t>оу</t>
-  </si>
-  <si>
-    <t>оу насъ</t>
-  </si>
-  <si>
-    <t>ѹ praep.</t>
-  </si>
-  <si>
-    <t>оу + Gen.</t>
-  </si>
-  <si>
-    <t>om.</t>
+    <t xml:space="preserve">1/W168a13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ταῖς</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вышьнмь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вышьнмь сламь•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вꙑшьнь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἄνω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ὁ ἄνω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W167c19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">раба•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л раба• л свободн• л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рабъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">δοῦλοι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">δοῦλος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">свободн•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">свободьнъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἐλεύθεροι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἐλεύθερος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W167c21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">немоудр•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л моудр• л немоудр•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">немѫдръ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἄσοφοι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἄσοφος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W167c22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">богат•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л богат• л нщ• л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">богатъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">πλούσιοι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">πλούσιος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нщ•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нщь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">πένητες</t>
+  </si>
+  <si>
+    <t xml:space="preserve">πένης</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W167c23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кнеꙁ•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кнеꙁ• л гроуб• вс тожⷣе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кънѧꙃъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἄρχοντες</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἄρχων</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тѣмь WH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тѣмь л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6a10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тѣмь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тѣмь л вдмо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тѣмь л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">κἂν</t>
+  </si>
+  <si>
+    <t xml:space="preserve">κἄν</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л WH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вдмо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вдмъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ὁρατὸν</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ὁρατός</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6a11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сть л раꙁѹмьно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᾖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">εἰμί</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">словесехъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">λόγοις</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8a13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не стьствомъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">οὐ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">παρὰ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">παρά</t>
+  </si>
+  <si>
+    <t xml:space="preserve">παρά + Acc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8a16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168a19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">παρά</t>
+  </si>
+  <si>
+    <t xml:space="preserve">παρά + Dat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вь WGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въ + Loc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/7d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оу насъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ѹ praep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оу + Gen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">om.</t>
   </si>
   <si>
     <t xml:space="preserve">παρ’ </t>
@@ -658,26 +653,26 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>G</t>
+      <t xml:space="preserve">G</t>
     </r>
   </si>
   <si>
-    <t>1/W168b6</t>
-  </si>
-  <si>
-    <t>нѣмоу</t>
-  </si>
-  <si>
-    <t>с нѣмоу подава•</t>
-  </si>
-  <si>
-    <t>нъ</t>
-  </si>
-  <si>
-    <t>ἄλλοις</t>
-  </si>
-  <si>
-    <t>ἄλλος</t>
+    <t xml:space="preserve">1/W168b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нѣмоу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с нѣмоу подава•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἄλλοις</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἄλλος</t>
   </si>
   <si>
     <r>
@@ -698,68 +693,68 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>G</t>
+      <t xml:space="preserve">G</t>
     </r>
   </si>
   <si>
-    <t> pron.</t>
-  </si>
-  <si>
-    <t>ταύτην</t>
-  </si>
-  <si>
-    <t>οὗτος</t>
-  </si>
-  <si>
-    <t>днородоу H</t>
-  </si>
-  <si>
-    <t>днородъ</t>
-  </si>
-  <si>
-    <t>1/W168a34</t>
-  </si>
-  <si>
-    <t>дноедоу</t>
-  </si>
-  <si>
-    <t>бѣ мѣт дноедоу</t>
+    <t xml:space="preserve"> pron.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ταύτην</t>
+  </si>
+  <si>
+    <t xml:space="preserve">οὗτος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">днородоу H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">днородъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168a34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дноедоу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бѣ мѣт дноедоу</t>
   </si>
   <si>
     <t xml:space="preserve">дноѧдъ </t>
   </si>
   <si>
-    <t>μονογενῆ</t>
-  </si>
-  <si>
-    <t>μονογενής</t>
-  </si>
-  <si>
-    <t>1/W168a28</t>
-  </si>
-  <si>
-    <t>дноедаго</t>
-  </si>
-  <si>
-    <t>цⷭ҇ре дноедаго ѡтрока ѡа•</t>
-  </si>
-  <si>
-    <t>дноѧдъ</t>
-  </si>
-  <si>
-    <t>μονογενοῦς</t>
-  </si>
-  <si>
-    <t>ноедаго G  днородоу H</t>
-  </si>
-  <si>
-    <t>днородъ H / ноѧдъ G</t>
-  </si>
-  <si>
-    <t>1/W168a25</t>
-  </si>
-  <si>
-    <t>вргь(!) гле• славоу ꙗко дноедоу</t>
+    <t xml:space="preserve">μονογενῆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μονογενής</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168a28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дноедаго</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цⷭ҇ре дноедаго ѡтрока ѡа•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дноѧдъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μονογενοῦς</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ноедаго G  днородоу H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">днородъ H / ноѧдъ G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168a25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вргь(!) гле• славоу ꙗко дноедоу</t>
   </si>
   <si>
     <r>
@@ -790,395 +785,395 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>Ø G</t>
+      <t xml:space="preserve">Ø G</t>
     </r>
   </si>
   <si>
-    <t>1/5a4</t>
-  </si>
-  <si>
-    <t>ноадꙑ</t>
-  </si>
-  <si>
-    <t>нъ ꙗко бъ• а ноадꙑ</t>
+    <t xml:space="preserve">1/5a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ноадꙑ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нъ ꙗко бъ• а ноадꙑ</t>
   </si>
   <si>
     <t xml:space="preserve">ноѧдъ </t>
   </si>
   <si>
-    <t>μονογενὴς</t>
-  </si>
-  <si>
-    <t>дноедѣмь WH Ø G</t>
-  </si>
-  <si>
-    <t>1/4c15</t>
-  </si>
-  <si>
-    <t>ноадѣмь</t>
-  </si>
-  <si>
-    <t>о ноадѣмь</t>
-  </si>
-  <si>
-    <t>ноѧдъ</t>
-  </si>
-  <si>
-    <t>1/5d9</t>
-  </si>
-  <si>
-    <t>него•</t>
-  </si>
-  <si>
-    <t>се  ѿ него•  не</t>
-  </si>
-  <si>
-    <t>αὐτοῦ</t>
-  </si>
-  <si>
-    <t>αὐτός</t>
-  </si>
-  <si>
-    <t>1/6a18</t>
-  </si>
-  <si>
-    <t>ретц</t>
-  </si>
-  <si>
-    <t>ꙗкоже ретц</t>
-  </si>
-  <si>
-    <t>ереткъ</t>
-  </si>
-  <si>
-    <t>αἱρετικούς</t>
-  </si>
-  <si>
-    <t>αἱρετικός, ὁ</t>
-  </si>
-  <si>
-    <t>1/6a19</t>
-  </si>
-  <si>
-    <t>сце</t>
-  </si>
-  <si>
-    <t>он бо снце рекл•</t>
-  </si>
-  <si>
-    <t>οὕτω</t>
-  </si>
-  <si>
-    <t>οὕτω(ς)</t>
-  </si>
-  <si>
-    <t>се</t>
-  </si>
-  <si>
-    <t>ἰδοὺ</t>
-  </si>
-  <si>
-    <t>ἰδού</t>
-  </si>
-  <si>
-    <t></t>
-  </si>
-  <si>
-    <t> conj.</t>
-  </si>
-  <si>
-    <t>καὶ</t>
-  </si>
-  <si>
-    <t>καί</t>
-  </si>
-  <si>
-    <t>ѿ</t>
-  </si>
-  <si>
-    <t>отъ</t>
+    <t xml:space="preserve">μονογενὴς</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дноедѣмь WH Ø G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4c15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ноадѣмь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">о ноадѣмь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ноѧдъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5d9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">него•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">се  ѿ него•  не</t>
+  </si>
+  <si>
+    <t xml:space="preserve">αὐτοῦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">αὐτός</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6a18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ретц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ꙗкоже ретц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ереткъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">αἱρετικούς</t>
+  </si>
+  <si>
+    <t xml:space="preserve">αἱρετικός, ὁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6a19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">он бо снце рекл•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">οὕτω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">οὕτω(ς)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">се</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἰδοὺ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἰδού</t>
+  </si>
+  <si>
+    <t xml:space="preserve"></t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conj.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">καὶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">καί</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ѿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отъ</t>
   </si>
   <si>
     <t xml:space="preserve">ἐξ </t>
   </si>
   <si>
-    <t>ἐκ</t>
-  </si>
-  <si>
-    <t>οὐχ</t>
-  </si>
-  <si>
-    <t>07/47a06</t>
-  </si>
-  <si>
-    <t>сътворлъ</t>
-  </si>
-  <si>
-    <t>сътворт</t>
-  </si>
-  <si>
-    <t>Ø</t>
-  </si>
-  <si>
-    <t>сть GH</t>
-  </si>
-  <si>
-    <t>вѣдѣл WG оувѣдѣл H</t>
-  </si>
-  <si>
-    <t>ѹвѣдѣт H</t>
-  </si>
-  <si>
-    <t>12/67c10</t>
-  </si>
-  <si>
-    <t>вдѣл</t>
-  </si>
-  <si>
-    <t>вдѣл бꙑхо-</t>
-  </si>
-  <si>
-    <t>вдѣт</t>
-  </si>
-  <si>
-    <t>ἔγνωμεν</t>
-  </si>
-  <si>
-    <t>γιγνώσκω</t>
-  </si>
-  <si>
-    <t>бꙑхомъ•</t>
-  </si>
-  <si>
-    <t>12/67d19</t>
-  </si>
-  <si>
-    <t>ьтеть•</t>
-  </si>
-  <si>
-    <t>ьтеть• въꙁлѣга-</t>
-  </si>
-  <si>
-    <t>ст</t>
-  </si>
-  <si>
-    <t>τιμὰς</t>
-  </si>
-  <si>
-    <t>τιμᾷ MPaPb</t>
-  </si>
-  <si>
-    <t>τιμάω</t>
-  </si>
-  <si>
-    <t>въꙁлѣгане</t>
-  </si>
-  <si>
-    <t>въꙁлѣган</t>
-  </si>
-  <si>
-    <t>ἀνάκλισιν</t>
-  </si>
-  <si>
-    <t>ἀνάκλισις</t>
-  </si>
-  <si>
-    <t>ἀνάκλησιν CMPcPa</t>
-  </si>
-  <si>
-    <t>хⷪ҇домь WG ходт H</t>
-  </si>
-  <si>
-    <t>ходъ WG</t>
-  </si>
-  <si>
-    <t>ходомь спѣт WG</t>
-  </si>
-  <si>
-    <t>14/72d18</t>
-  </si>
-  <si>
-    <t>ходмъ</t>
-  </si>
-  <si>
-    <t>себе• по поут хо-</t>
-  </si>
-  <si>
-    <t>ходт</t>
+    <t xml:space="preserve">ἐκ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">οὐχ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/47a06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сътворлъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сътворт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сть GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вѣдѣл WG оувѣдѣл H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ѹвѣдѣт H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/67c10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вдѣл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вдѣл бꙑхо-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вдѣт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἔγνωμεν</t>
+  </si>
+  <si>
+    <t xml:space="preserve">γιγνώσκω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бꙑхомъ•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/67d19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ьтеть•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ьтеть• въꙁлѣга-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τιμὰς</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τιμᾷ MPaPb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τιμάω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въꙁлѣгане</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въꙁлѣган</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀνάκλισιν</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀνάκλισις</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀνάκλησιν CMPcPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хⷪ҇домь WG ходт H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ходъ WG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ходомь спѣт WG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/72d18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ходмъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">себе• по поут хо-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ходт</t>
   </si>
   <si>
     <t xml:space="preserve">≈ ходт спѣѭще </t>
   </si>
   <si>
-    <t>προβαίνοντες</t>
-  </si>
-  <si>
-    <t>προβαίνω</t>
-  </si>
-  <si>
-    <t>спѣюще WG с пѣнмь H</t>
-  </si>
-  <si>
-    <t>14/72d19</t>
-  </si>
-  <si>
-    <t>спѣюще•</t>
-  </si>
-  <si>
-    <t>дмъ спѣюще•</t>
-  </si>
-  <si>
-    <t>спѣт</t>
-  </si>
-  <si>
-    <t>06/50a06</t>
-  </si>
-  <si>
-    <t>05/22b11</t>
-  </si>
-  <si>
-    <t>вѣдѣла</t>
-  </si>
-  <si>
-    <t>бꙑ вѣдѣла да-</t>
-  </si>
-  <si>
-    <t>вѣдѣт</t>
+    <t xml:space="preserve">προβαίνοντες</t>
+  </si>
+  <si>
+    <t xml:space="preserve">προβαίνω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спѣюще WG с пѣнмь H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/72d19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спѣюще•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дмъ спѣюще•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спѣт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/50a06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/22b11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вѣдѣла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бꙑ вѣдѣла да-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вѣдѣт</t>
   </si>
   <si>
     <t xml:space="preserve">ᾔδεις </t>
   </si>
   <si>
-    <t>οἶδα</t>
-  </si>
-  <si>
-    <t>вѣла ! WH</t>
-  </si>
-  <si>
-    <t>бꙑ</t>
-  </si>
-  <si>
-    <t>05/22b13</t>
-  </si>
-  <si>
-    <t>оувѣдѣла</t>
-  </si>
-  <si>
-    <t>е• оувѣдѣ-</t>
-  </si>
-  <si>
-    <t>оувѣдѣт</t>
+    <t xml:space="preserve">οἶδα</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вѣла ! WH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бꙑ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/22b13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оувѣдѣла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е• оувѣдѣ-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оувѣдѣт</t>
   </si>
   <si>
     <t xml:space="preserve">μαθοῦσα </t>
   </si>
   <si>
-    <t>μανθάνω</t>
-  </si>
-  <si>
-    <t>05/22b14</t>
-  </si>
-  <si>
-    <t>ла бо бꙑ аб-</t>
-  </si>
-  <si>
-    <t>cond.</t>
+    <t xml:space="preserve">μανθάνω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/22b14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ла бо бꙑ аб-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cond.</t>
   </si>
   <si>
     <t xml:space="preserve">ἔμελλεν </t>
   </si>
   <si>
-    <t>μέλλω</t>
-  </si>
-  <si>
-    <t>1/4b16</t>
-  </si>
-  <si>
-    <t>наатъ</t>
-  </si>
-  <si>
-    <t>семоу наатъ</t>
-  </si>
-  <si>
-    <t>наѧт</t>
-  </si>
-  <si>
-    <t>≠</t>
-  </si>
-  <si>
-    <t>ᾐνίξατο</t>
-  </si>
-  <si>
-    <t>αἰνίσσομαι</t>
-  </si>
-  <si>
-    <t>1/4c8</t>
-  </si>
-  <si>
-    <t>бесѣдовашѧ•</t>
-  </si>
-  <si>
-    <t>бесѣдоват</t>
+    <t xml:space="preserve">μέλλω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4b16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">наатъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">семоу наатъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">наѧт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">≠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᾐνίξατο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">αἰνίσσομαι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4c8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бесѣдовашѧ•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бесѣдоват</t>
   </si>
   <si>
     <t xml:space="preserve">≠ </t>
   </si>
   <si>
-    <t>διατρίψαντες</t>
-  </si>
-  <si>
-    <t>διατρίβω</t>
-  </si>
-  <si>
-    <t>вьврьгь WH Ø G</t>
-  </si>
-  <si>
-    <t>въврѣщ</t>
-  </si>
-  <si>
-    <t>1/4d4</t>
-  </si>
-  <si>
-    <t>въꙁврьгъ•</t>
-  </si>
-  <si>
-    <t>въꙁврьгъ• о съмотрен</t>
-  </si>
-  <si>
-    <t>въꙁврѣщ</t>
-  </si>
-  <si>
-    <t>ἀφεὶς</t>
-  </si>
-  <si>
-    <t>ἀϕίημι</t>
+    <t xml:space="preserve">διατρίψαντες</t>
+  </si>
+  <si>
+    <t xml:space="preserve">διατρίβω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вьврьгь WH Ø G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въврѣщ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въꙁврьгъ•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въꙁврьгъ• о съмотрен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въꙁврѣщ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀφεὶς</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀϕίημι</t>
   </si>
   <si>
     <t xml:space="preserve">не WGH  </t>
   </si>
   <si>
-    <t>1/5b9</t>
-  </si>
-  <si>
-    <t>се ꙗвлꙗеть</t>
+    <t xml:space="preserve">1/5b9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">се ꙗвлꙗеть</t>
   </si>
   <si>
     <t xml:space="preserve">сь </t>
   </si>
   <si>
-    <t>err. pro не</t>
-  </si>
-  <si>
-    <t>οὐκ</t>
-  </si>
-  <si>
-    <t>1/5d6</t>
-  </si>
-  <si>
-    <t>ома</t>
-  </si>
-  <si>
-    <t>око</t>
+    <t xml:space="preserve">err. pro не</t>
+  </si>
+  <si>
+    <t xml:space="preserve">οὐκ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5d6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">око</t>
   </si>
   <si>
     <t xml:space="preserve">≈ </t>
@@ -1187,37 +1182,37 @@
     <t xml:space="preserve">αἰσθήσεις </t>
   </si>
   <si>
-    <t>αἴσθησις</t>
-  </si>
-  <si>
-    <t>бж W бж G бжї H</t>
-  </si>
-  <si>
-    <t>бож</t>
-  </si>
-  <si>
-    <t>1/7a4</t>
-  </si>
-  <si>
-    <t>боꙁѣ</t>
-  </si>
-  <si>
-    <t>о боꙁѣ словес•</t>
+    <t xml:space="preserve">αἴσθησις</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бж W бж G бжї H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бож</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/7a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">боꙁѣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">о боꙁѣ словес•</t>
   </si>
   <si>
     <t xml:space="preserve">богъ </t>
   </si>
   <si>
-    <t>Dat.</t>
-  </si>
-  <si>
-    <t>Θεοῦ</t>
-  </si>
-  <si>
-    <t>θεός</t>
-  </si>
-  <si>
-    <t>Gen.</t>
+    <t xml:space="preserve">Dat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Θεοῦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">θεός</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen.</t>
   </si>
   <si>
     <r>
@@ -1258,219 +1253,237 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>H</t>
+      <t xml:space="preserve">H</t>
     </r>
   </si>
   <si>
-    <t>вргь(!)</t>
-  </si>
-  <si>
-    <t>врьхъ</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>κορυφὴν</t>
-  </si>
-  <si>
-    <t>κορυφός</t>
-  </si>
-  <si>
-    <t>1/W168a31</t>
-  </si>
-  <si>
-    <t>сть  прт• нь ꙁвѣтованю•</t>
-  </si>
-  <si>
-    <t>err. pro н</t>
-  </si>
-  <si>
-    <t>οὐδὲ</t>
-  </si>
-  <si>
-    <t>οὐδέ</t>
-  </si>
-  <si>
-    <t>1/5b16</t>
-  </si>
-  <si>
-    <t>прсносоуще•</t>
-  </si>
-  <si>
-    <t>бжства•  прсно</t>
-  </si>
-  <si>
-    <t>прсносꙑ</t>
-  </si>
-  <si>
-    <t>ἀΐδιον</t>
-  </si>
-  <si>
-    <t>ἀΐδιος</t>
-  </si>
-  <si>
-    <t>διὰ</t>
+    <t xml:space="preserve">вргь(!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">врьхъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">κορυφὴν</t>
+  </si>
+  <si>
+    <t xml:space="preserve">κορυφός</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168a31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сть  прт• нь ꙁвѣтованю•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err. pro н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">οὐδὲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">οὐδέ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5b16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прсносоуще•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бжства•  прсно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прсносꙑ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀΐδιον</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀΐδιος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">διὰ</t>
   </si>
   <si>
     <t xml:space="preserve">διά </t>
   </si>
   <si>
-    <t>διά + Gen.</t>
-  </si>
-  <si>
-    <t>1/W168a6</t>
-  </si>
-  <si>
-    <t>го</t>
-  </si>
-  <si>
-    <t>Славоу го сьвьсптѣнⷪ҇мь</t>
-  </si>
-  <si>
-    <t>αὐτός</t>
-  </si>
-  <si>
-    <t>Διὰ</t>
-  </si>
-  <si>
-    <t>διά</t>
-  </si>
-  <si>
-    <t>διά + Gen.</t>
-  </si>
-  <si>
-    <t>om. WH</t>
-  </si>
-  <si>
-    <t>1/7c6</t>
-  </si>
-  <si>
-    <t>аще</t>
-  </si>
-  <si>
-    <t>аще  не</t>
-  </si>
-  <si>
-    <t>ѿ WG  ѡ H</t>
-  </si>
-  <si>
-    <t>1/5d11</t>
-  </si>
-  <si>
-    <t>ἐπὶ</t>
-  </si>
-  <si>
-    <t>ἐπί</t>
-  </si>
-  <si>
-    <t>ἐπί + Gen.</t>
-  </si>
-  <si>
-    <t>пьрьц W прьвѣ GH</t>
-  </si>
-  <si>
-    <t>прьвѣ GH</t>
-  </si>
-  <si>
-    <t>06/35b04</t>
-  </si>
-  <si>
-    <t>прьвьц</t>
-  </si>
-  <si>
-    <t>ть прьвьц послꙋ-</t>
+    <t xml:space="preserve">διά + Gen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/W168a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">го</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Славоу го сьвьсптѣнⷪ҇мь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">αὐτός</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διὰ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">διά</t>
+  </si>
+  <si>
+    <t xml:space="preserve">διά + Gen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">om. WH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/7c6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аще</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аще  не</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ѿ WG  ѡ H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5d11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἐπὶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἐπί</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἐπί + Gen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пьрьц W прьвѣ GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прьвѣ GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/35b04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прьвьц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ть прьвьц послꙋ-</t>
   </si>
   <si>
     <t xml:space="preserve">πρότερον </t>
   </si>
   <si>
-    <t>04/16a21</t>
-  </si>
-  <si>
-    <t>бы</t>
-  </si>
-  <si>
-    <t> сть• не бы</t>
-  </si>
-  <si>
-    <t>04/16b01</t>
-  </si>
-  <si>
-    <t>моглъ</t>
-  </si>
-  <si>
-    <t>бо моглъ одра-</t>
-  </si>
-  <si>
-    <t>мощ</t>
-  </si>
-  <si>
-    <t>ἠδύνατο</t>
-  </si>
-  <si>
-    <t>велане WGH</t>
-  </si>
-  <si>
-    <t>велан</t>
-  </si>
-  <si>
-    <t>05/21a19</t>
-  </si>
-  <si>
-    <t>невелан</t>
-  </si>
-  <si>
-    <t>тъкмо• нъ  не-</t>
-  </si>
-  <si>
-    <t>ἄτυφον</t>
-  </si>
-  <si>
-    <t>ἄτυφος</t>
-  </si>
-  <si>
-    <t>невел</t>
-  </si>
-  <si>
-    <t>оуслышат GH</t>
-  </si>
-  <si>
-    <t>ѹслꙑшат</t>
-  </si>
-  <si>
-    <t>05/22b05</t>
-  </si>
-  <si>
-    <t>слꙑшат</t>
-  </si>
-  <si>
-    <t>ноу соущоу слꙑ-</t>
+    <t xml:space="preserve">04/16a21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сть• не бы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/16b01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">моглъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бо моглъ одра-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мощ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἠδύνατο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">велане WGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">велан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/21a19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">невелан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тъкмо• нъ  не-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἄτυφον</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἄτυφος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">невел WGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">невел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оуслышат GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ѹслꙑшат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/22b05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">слꙑшат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ноу соущоу слꙑ-</t>
   </si>
   <si>
     <t xml:space="preserve">ἀκοῦσαι </t>
   </si>
   <si>
-    <t>ἀκούω</t>
-  </si>
-  <si>
-    <t>послꙑшат</t>
-  </si>
-  <si>
-    <t>невел WGH</t>
+    <t xml:space="preserve">ἀκούω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">послꙑшат</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1512,7 +1525,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="CyrillicaOchrid10U"/>
@@ -1520,7 +1533,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1528,8 +1541,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1542,8 +1555,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1563,7 +1576,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <name val="CyrillicaOchrid10U"/>
       <family val="2"/>
@@ -1577,7 +1590,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
@@ -1613,7 +1626,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <name val="CyrillicaOchrid10U"/>
       <family val="5"/>
@@ -1632,7 +1645,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1640,7 +1653,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <name val="CyrillicaOchrid10U"/>
       <family val="2"/>
@@ -1653,7 +1666,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1681,7 +1694,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1702,7 +1715,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="CyrillicaOchrid10U"/>
@@ -1737,7 +1750,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1772,12 +1785,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FF9DC3E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFF4B183"/>
       </patternFill>
@@ -1790,20 +1797,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7E7"/>
+        <bgColor rgb="FF9DC3E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFB4C7E7"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FFD3D3D3"/>
       </left>
@@ -1818,7 +1831,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FFD3D3D3"/>
       </left>
@@ -1831,7 +1844,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="hair">
         <color rgb="FFD3D3D3"/>
@@ -1845,104 +1858,354 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="77">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2001,343 +2264,35 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="17.05" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="17.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="9" max="10" width="8.5546875" style="1"/>
-    <col min="12" max="12" width="11.21875" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2314,7 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2381,7 +2336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2433,7 +2388,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
@@ -2456,7 +2411,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="11" t="s">
         <v>27</v>
       </c>
@@ -2475,7 +2430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2496,7 +2451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="11" t="s">
         <v>27</v>
       </c>
@@ -2517,7 +2472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="11" t="s">
         <v>37</v>
       </c>
@@ -2538,7 +2493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="14" t="s">
         <v>43</v>
       </c>
@@ -2561,7 +2516,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="14" t="s">
         <v>49</v>
       </c>
@@ -2584,7 +2539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
@@ -2611,7 +2566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
@@ -2638,7 +2593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="3" t="s">
         <v>63</v>
       </c>
@@ -2665,7 +2620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="15" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="3" t="s">
         <v>67</v>
       </c>
@@ -2691,7 +2646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="3" t="s">
         <v>74</v>
       </c>
@@ -2712,7 +2667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="17" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="3" t="s">
         <v>80</v>
       </c>
@@ -2741,11 +2696,11 @@
       <c r="R17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
@@ -2766,7 +2721,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="19" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="3" t="s">
         <v>80</v>
       </c>
@@ -2794,7 +2749,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="3" t="s">
         <v>97</v>
       </c>
@@ -2821,7 +2776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="3" t="s">
         <v>97</v>
       </c>
@@ -2832,12 +2787,11 @@
       <c r="H21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="23"/>
       <c r="K21" s="1"/>
       <c r="L21" s="7"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="3" t="s">
         <v>97</v>
       </c>
@@ -2853,7 +2807,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="3"/>
       <c r="F23" s="10"/>
       <c r="G23" s="5"/>
@@ -2863,7 +2817,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="3" t="s">
         <v>106</v>
       </c>
@@ -2871,22 +2825,22 @@
         <v>28</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="25" t="s">
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="26" t="s">
         <v>107</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="Q24" s="26"/>
-    </row>
-    <row r="25" spans="1:19" ht="17.7" x14ac:dyDescent="0.45">
+      <c r="Q24" s="27"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="3" t="s">
         <v>106</v>
       </c>
@@ -2900,7 +2854,7 @@
         <v>110</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="26" t="s">
         <v>111</v>
       </c>
       <c r="M25" s="7" t="s">
@@ -2913,7 +2867,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="26" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="3"/>
       <c r="F26" s="10"/>
       <c r="G26" s="5"/>
@@ -2924,7 +2878,7 @@
       <c r="N26" s="2"/>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="3" t="s">
         <v>114</v>
       </c>
@@ -2936,15 +2890,16 @@
         <v>28</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N27" s="9"/>
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="3" t="s">
         <v>114</v>
       </c>
@@ -2958,7 +2913,7 @@
         <v>118</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="27" t="s">
+      <c r="L28" s="28" t="s">
         <v>119</v>
       </c>
       <c r="M28" s="7" t="s">
@@ -2968,8 +2923,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="29"/>
+    <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="31"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2982,7 +2937,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="3" t="s">
         <v>121</v>
       </c>
@@ -3004,7 +2959,7 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="3" t="s">
         <v>121</v>
       </c>
@@ -3026,7 +2981,7 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="3"/>
       <c r="F32" s="10"/>
       <c r="G32" s="5"/>
@@ -3036,7 +2991,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="3" t="s">
         <v>131</v>
       </c>
@@ -3058,7 +3013,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="3" t="s">
         <v>137</v>
       </c>
@@ -3080,7 +3035,7 @@
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="3" t="s">
         <v>137</v>
       </c>
@@ -3102,7 +3057,7 @@
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="3" t="s">
         <v>147</v>
       </c>
@@ -3124,7 +3079,7 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="3"/>
       <c r="F37" s="10"/>
       <c r="G37" s="5"/>
@@ -3134,8 +3089,8 @@
       <c r="M37" s="7"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A38" s="29" t="s">
+    <row r="38" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="31" t="s">
         <v>153</v>
       </c>
       <c r="B38" s="6"/>
@@ -3152,7 +3107,7 @@
       <c r="G38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="32" t="s">
         <v>156</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -3167,8 +3122,8 @@
       </c>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A39" s="29" t="s">
+    <row r="39" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="31" t="s">
         <v>161</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3193,8 +3148,8 @@
       <c r="M39" s="7"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A40" s="29"/>
+    <row r="40" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="31"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3219,8 +3174,8 @@
       </c>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A41" s="29"/>
+    <row r="41" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="31"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3245,7 +3200,7 @@
       </c>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="3" t="s">
         <v>173</v>
       </c>
@@ -3266,7 +3221,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="3" t="s">
         <v>176</v>
       </c>
@@ -3288,7 +3243,7 @@
       </c>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="3" t="s">
         <v>176</v>
       </c>
@@ -3310,7 +3265,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="3" t="s">
         <v>183</v>
       </c>
@@ -3318,7 +3273,7 @@
         <v>179</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="32" t="s">
         <v>179</v>
       </c>
       <c r="K45" s="1"/>
@@ -3332,7 +3287,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="3"/>
       <c r="F46" s="10"/>
       <c r="G46" s="5"/>
@@ -3342,7 +3297,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="3" t="s">
         <v>184</v>
       </c>
@@ -3364,8 +3319,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A48" s="29" t="s">
+    <row r="48" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="31" t="s">
         <v>187</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3396,7 +3351,7 @@
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="2"/>
-      <c r="Q48" s="31" t="s">
+      <c r="Q48" s="33" t="s">
         <v>196</v>
       </c>
       <c r="R48" s="22" t="s">
@@ -3406,7 +3361,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>198</v>
       </c>
@@ -3433,7 +3388,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>205</v>
       </c>
@@ -3460,8 +3415,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A52" s="29" t="s">
+    <row r="52" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="31" t="s">
         <v>209</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -3478,7 +3433,7 @@
       <c r="G52" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H52" s="32" t="s">
         <v>214</v>
       </c>
       <c r="K52" s="1"/>
@@ -3489,7 +3444,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="3" t="s">
         <v>217</v>
       </c>
@@ -3510,8 +3465,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" s="29" t="s">
+    <row r="54" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="31" t="s">
         <v>222</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -3528,7 +3483,7 @@
       <c r="G54" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="32" t="s">
         <v>220</v>
       </c>
       <c r="K54" s="1"/>
@@ -3539,7 +3494,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>226</v>
       </c>
@@ -3557,7 +3512,7 @@
       <c r="G55" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H55" s="30" t="s">
+      <c r="H55" s="32" t="s">
         <v>230</v>
       </c>
       <c r="K55" s="1"/>
@@ -3568,8 +3523,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A56" s="29" t="s">
+    <row r="56" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="31" t="s">
         <v>232</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3586,7 +3541,7 @@
       <c r="G56" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H56" s="30" t="s">
+      <c r="H56" s="32" t="s">
         <v>236</v>
       </c>
       <c r="K56" s="1"/>
@@ -3597,7 +3552,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="3" t="s">
         <v>237</v>
       </c>
@@ -3618,7 +3573,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="3" t="s">
         <v>242</v>
       </c>
@@ -3639,7 +3594,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="3" t="s">
         <v>248</v>
       </c>
@@ -3660,7 +3615,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="3" t="s">
         <v>237</v>
       </c>
@@ -3681,7 +3636,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="3" t="s">
         <v>237</v>
       </c>
@@ -3702,7 +3657,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="3" t="s">
         <v>237</v>
       </c>
@@ -3723,7 +3678,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="3" t="s">
         <v>237</v>
       </c>
@@ -3744,7 +3699,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="3" t="s">
         <v>237</v>
       </c>
@@ -3765,7 +3720,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="3" t="s">
         <v>237</v>
       </c>
@@ -3786,18 +3741,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="66" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
-      <c r="B66" s="32"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33" t="s">
+      <c r="D66" s="35"/>
+      <c r="E66" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F66" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="G66" s="35" t="s">
+      <c r="G66" s="36" t="s">
         <v>266</v>
       </c>
       <c r="H66" s="17" t="s">
@@ -3809,28 +3764,28 @@
       <c r="L66" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M66" s="36" t="s">
+      <c r="M66" s="37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="67" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="G67" s="36" t="s">
         <v>266</v>
       </c>
       <c r="H67" s="17" t="s">
@@ -3842,11 +3797,11 @@
       <c r="L67" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="36" t="s">
+      <c r="M67" s="37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="69" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="s">
         <v>270</v>
       </c>
@@ -3863,20 +3818,20 @@
       <c r="G69" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="H69" s="39" t="s">
+      <c r="H69" s="40" t="s">
         <v>275</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="41" t="s">
+      <c r="K69" s="41"/>
+      <c r="L69" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="M69" s="42" t="s">
+      <c r="M69" s="43" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="70" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="17"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14" t="s">
@@ -3888,20 +3843,20 @@
       <c r="G70" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="H70" s="39" t="s">
+      <c r="H70" s="40" t="s">
         <v>40</v>
       </c>
       <c r="I70" s="18"/>
-      <c r="J70" s="37" t="s">
+      <c r="J70" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K70" s="40"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="44" t="s">
+      <c r="K70" s="41"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="71" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="14" t="s">
         <v>279</v>
       </c>
@@ -3911,26 +3866,26 @@
       <c r="G71" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="H71" s="39" t="s">
+      <c r="H71" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="I71" s="45"/>
+      <c r="I71" s="46"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="46" t="s">
+      <c r="K71" s="41"/>
+      <c r="L71" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="M71" s="42"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="Q71" s="47" t="s">
+      <c r="M71" s="43"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="Q71" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="R71" s="48" t="s">
+      <c r="R71" s="49" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="72" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="14" t="s">
         <v>279</v>
       </c>
@@ -3940,30 +3895,30 @@
       <c r="G72" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="H72" s="39" t="s">
+      <c r="H72" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="I72" s="49"/>
+      <c r="I72" s="50"/>
       <c r="J72" s="18"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="46" t="s">
+      <c r="K72" s="41"/>
+      <c r="L72" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="M72" s="42" t="s">
+      <c r="M72" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="Q72" s="47" t="s">
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="Q72" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="R72" s="48"/>
-    </row>
-    <row r="73" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+      <c r="R72" s="49"/>
+    </row>
+    <row r="73" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="40" t="s">
         <v>292</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3973,10 +3928,10 @@
       <c r="E73" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="F73" s="50" t="s">
+      <c r="F73" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="G73" s="51" t="s">
+      <c r="G73" s="52" t="s">
         <v>296</v>
       </c>
       <c r="H73" s="17" t="s">
@@ -3986,55 +3941,55 @@
         <v>298</v>
       </c>
       <c r="J73" s="18"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="52" t="s">
+      <c r="K73" s="44"/>
+      <c r="L73" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="M73" s="53" t="s">
+      <c r="M73" s="54" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="74" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B74" s="39"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="1"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="F74" s="50" t="s">
+      <c r="F74" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="G74" s="51" t="s">
+      <c r="G74" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="H74" s="54" t="s">
+      <c r="H74" s="55" t="s">
         <v>305</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="53"/>
-      <c r="Q74" s="31"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="Q75" s="55"/>
-    </row>
-    <row r="76" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+      <c r="K74" s="44"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="54"/>
+      <c r="Q74" s="33"/>
+    </row>
+    <row r="75" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q75" s="56"/>
+    </row>
+    <row r="76" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
-      <c r="B76" s="32"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33" t="s">
+      <c r="D76" s="35"/>
+      <c r="E76" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="F76" s="34" t="s">
+      <c r="F76" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="G76" s="35" t="s">
+      <c r="G76" s="36" t="s">
         <v>266</v>
       </c>
       <c r="H76" s="17" t="s">
@@ -4046,28 +4001,28 @@
       <c r="L76" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M76" s="36" t="s">
+      <c r="M76" s="37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="77" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="E77" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="F77" s="38" t="s">
+      <c r="F77" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="G77" s="35" t="s">
+      <c r="G77" s="36" t="s">
         <v>266</v>
       </c>
       <c r="H77" s="17" t="s">
@@ -4079,11 +4034,11 @@
       <c r="L77" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M77" s="36" t="s">
+      <c r="M77" s="37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" s="58" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -4091,7 +4046,7 @@
       <c r="E79" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F79" s="56" t="s">
+      <c r="F79" s="57" t="s">
         <v>308</v>
       </c>
       <c r="G79" s="10" t="s">
@@ -4110,7 +4065,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" s="58" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
         <v>313</v>
       </c>
@@ -4120,7 +4075,7 @@
       <c r="E80" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F80" s="56" t="s">
+      <c r="F80" s="57" t="s">
         <v>314</v>
       </c>
       <c r="G80" s="10" t="s">
@@ -4130,80 +4085,80 @@
         <v>40</v>
       </c>
       <c r="I80" s="10"/>
-      <c r="J80" s="58" t="s">
+      <c r="J80" s="59" t="s">
         <v>10</v>
       </c>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="59" t="s">
+      <c r="M80" s="60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-    </row>
-    <row r="82" spans="1:14" ht="17.7" x14ac:dyDescent="0.45">
-      <c r="A82" s="62"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="63" t="s">
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+    </row>
+    <row r="82" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="F82" s="64" t="s">
+      <c r="F82" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="G82" s="65" t="s">
+      <c r="G82" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="63"/>
-      <c r="L82" s="67" t="s">
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="M82" s="68" t="s">
+      <c r="M82" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="N82" s="67"/>
-    </row>
-    <row r="83" spans="1:14" ht="17.7" x14ac:dyDescent="0.45">
-      <c r="E83" s="63" t="s">
+      <c r="N82" s="68"/>
+    </row>
+    <row r="83" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="F83" s="64" t="s">
+      <c r="F83" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="G83" s="65" t="s">
+      <c r="G83" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="H83" s="66" t="s">
+      <c r="H83" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I83" s="63"/>
-      <c r="J83" s="69" t="s">
+      <c r="I83" s="64"/>
+      <c r="J83" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="K83" s="63"/>
-      <c r="L83" s="67" t="s">
+      <c r="K83" s="64"/>
+      <c r="L83" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="M83" s="68" t="s">
+      <c r="M83" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="N83" s="67"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A84" s="29"/>
+      <c r="N83" s="68"/>
+    </row>
+    <row r="84" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="31"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4226,11 +4181,11 @@
       <c r="L84" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="M84" s="70" t="s">
+      <c r="M84" s="71" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="3" t="s">
         <v>333</v>
       </c>
@@ -4254,8 +4209,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A86" s="29" t="s">
+    <row r="86" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="31" t="s">
         <v>339</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -4272,7 +4227,7 @@
       <c r="G86" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="H86" s="30" t="s">
+      <c r="H86" s="32" t="s">
         <v>344</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -4286,8 +4241,8 @@
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A87" s="71" t="s">
+    <row r="87" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="72" t="s">
         <v>347</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -4304,7 +4259,7 @@
       <c r="G87" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H87" s="30" t="s">
+      <c r="H87" s="32" t="s">
         <v>350</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -4318,7 +4273,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="3" t="s">
         <v>353</v>
       </c>
@@ -4334,7 +4289,7 @@
       <c r="I88" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K88" s="72"/>
+      <c r="K88" s="39"/>
       <c r="L88" s="3" t="s">
         <v>357</v>
       </c>
@@ -4342,8 +4297,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A89" s="29" t="s">
+    <row r="89" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="31" t="s">
         <v>359</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -4360,7 +4315,7 @@
       <c r="G89" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="H89" s="30" t="s">
+      <c r="H89" s="32" t="s">
         <v>364</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -4377,45 +4332,44 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A90" s="61" t="s">
+    <row r="90" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="B90" s="73"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="74" t="s">
+      <c r="B90" s="6"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F90" s="75" t="s">
+      <c r="F90" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="G90" s="76" t="s">
+      <c r="G90" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H90" s="73" t="s">
+      <c r="H90" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="I90" s="23" t="s">
+      <c r="I90" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="77" t="s">
+      <c r="K90" s="1"/>
+      <c r="L90" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="M90" s="78" t="s">
+      <c r="M90" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="E91" s="74" t="s">
+    <row r="91" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F91" s="75" t="s">
+      <c r="F91" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G91" s="76" t="s">
+      <c r="G91" s="5" t="s">
         <v>376</v>
       </c>
       <c r="H91" s="6" t="s">
@@ -4424,16 +4378,15 @@
       <c r="I91" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="77" t="s">
+      <c r="K91" s="1"/>
+      <c r="L91" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="M91" s="78" t="s">
+      <c r="M91" s="7" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="3" t="s">
         <v>380</v>
       </c>
@@ -4455,13 +4408,13 @@
       </c>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="93" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="3"/>
       <c r="F93" s="10" t="s">
         <v>179</v>
       </c>
       <c r="G93" s="5"/>
-      <c r="H93" s="30" t="s">
+      <c r="H93" s="32" t="s">
         <v>179</v>
       </c>
       <c r="K93" s="1"/>
@@ -4475,7 +4428,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="3" t="s">
         <v>389</v>
       </c>
@@ -4497,7 +4450,7 @@
       </c>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="3"/>
       <c r="F95" s="10" t="s">
         <v>179</v>
@@ -4517,8 +4470,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A96" s="29" t="s">
+    <row r="96" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="31" t="s">
         <v>396</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -4546,8 +4499,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A97" s="29"/>
+    <row r="97" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="31"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4571,8 +4524,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A98" s="29" t="s">
+    <row r="98" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="31" t="s">
         <v>396</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -4600,8 +4553,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A99" s="29" t="s">
+    <row r="99" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="31" t="s">
         <v>400</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -4630,7 +4583,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="17.7" x14ac:dyDescent="0.45">
+    <row r="100" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="18" t="s">
         <v>405</v>
       </c>
@@ -4645,7 +4598,7 @@
       <c r="F100" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="G100" s="51" t="s">
+      <c r="G100" s="52" t="s">
         <v>409</v>
       </c>
       <c r="H100" s="17" t="s">
@@ -4654,44 +4607,44 @@
       <c r="I100" s="18"/>
       <c r="J100" s="18"/>
       <c r="K100" s="18"/>
-      <c r="L100" s="52" t="s">
+      <c r="L100" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="M100" s="52" t="s">
+      <c r="M100" s="53" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="101" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="F101" s="50" t="s">
+      <c r="F101" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="G101" s="51" t="s">
+      <c r="G101" s="52" t="s">
         <v>413</v>
       </c>
       <c r="H101" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I101" s="18"/>
-      <c r="J101" s="79" t="s">
+      <c r="J101" s="73" t="s">
         <v>10</v>
       </c>
       <c r="K101" s="18"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="20" t="s">
+      <c r="M101" s="74" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="102" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="F102" s="50" t="s">
+      <c r="F102" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="G102" s="51" t="s">
+      <c r="G102" s="52" t="s">
         <v>416</v>
       </c>
       <c r="H102" s="17" t="s">
@@ -4703,26 +4656,26 @@
       <c r="L102" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="M102" s="80" t="s">
+      <c r="M102" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="103" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="18" t="s">
         <v>419</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
       <c r="E103" s="18" t="s">
         <v>421</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="G103" s="51" t="s">
+      <c r="G103" s="52" t="s">
         <v>423</v>
       </c>
       <c r="H103" s="17" t="s">
@@ -4731,29 +4684,29 @@
       <c r="I103" s="18"/>
       <c r="J103" s="18"/>
       <c r="K103" s="18"/>
-      <c r="L103" s="77" t="s">
+      <c r="L103" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="M103" s="81" t="s">
+      <c r="M103" s="76" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="104" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="18" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
+        <v>427</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
       <c r="E104" s="18" t="s">
         <v>421</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="G104" s="51" t="s">
+      <c r="G104" s="52" t="s">
         <v>423</v>
       </c>
       <c r="H104" s="17" t="s">
@@ -4762,75 +4715,80 @@
       <c r="I104" s="18"/>
       <c r="J104" s="18"/>
       <c r="K104" s="18"/>
-      <c r="L104" s="77" t="s">
+      <c r="L104" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="M104" s="81" t="s">
+      <c r="M104" s="76" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="105" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
+        <v>429</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
       <c r="E105" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="G105" s="51" t="s">
         <v>431</v>
       </c>
+      <c r="G105" s="52" t="s">
+        <v>432</v>
+      </c>
       <c r="H105" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I105" s="18"/>
       <c r="J105" s="18"/>
       <c r="K105" s="18"/>
-      <c r="L105" s="77" t="s">
+      <c r="L105" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M105" s="76" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="G106" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="M105" s="81" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A106" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="G106" s="51" t="s">
-        <v>431</v>
-      </c>
       <c r="H106" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I106" s="18"/>
       <c r="J106" s="18"/>
       <c r="K106" s="18"/>
-      <c r="L106" s="77" t="s">
-        <v>432</v>
-      </c>
-      <c r="M106" s="81" t="s">
+      <c r="L106" s="2" t="s">
         <v>433</v>
       </c>
+      <c r="M106" s="76" t="s">
+        <v>434</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/integrator/test/Proba20c.xlsx
+++ b/integrator/test/Proba20c.xlsx
@@ -1887,7 +1887,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1924,10 +1924,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1980,14 +1976,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2004,10 +1992,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2061,6 +2045,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2276,16 +2264,16 @@
   </sheetPr>
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="17.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="17.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.44"/>
@@ -2332,7 +2320,7 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2346,7 +2334,7 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2406,24 +2394,24 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
@@ -2431,10 +2419,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -2444,7 +2432,7 @@
         <v>30</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="7" t="s">
@@ -2452,10 +2440,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2465,7 +2453,7 @@
         <v>34</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="12" t="s">
         <v>35</v>
       </c>
       <c r="M8" s="7" t="s">
@@ -2473,10 +2461,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -2486,7 +2474,7 @@
         <v>40</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -2494,21 +2482,21 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="14"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="2" t="s">
         <v>47</v>
       </c>
@@ -2517,25 +2505,25 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2543,7 +2531,7 @@
       <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2570,7 +2558,7 @@
       <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -2597,7 +2585,7 @@
       <c r="E14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -2624,7 +2612,7 @@
       <c r="E15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -2639,10 +2627,10 @@
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="2"/>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="21" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2650,7 +2638,7 @@
       <c r="E16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -2671,7 +2659,7 @@
       <c r="E17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -2690,10 +2678,10 @@
       <c r="N17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="21" t="s">
         <v>88</v>
       </c>
       <c r="S17" s="0" t="s">
@@ -2704,7 +2692,7 @@
       <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -2725,7 +2713,7 @@
       <c r="E19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2742,10 +2730,10 @@
         <v>85</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="Q19" s="21" t="s">
+      <c r="Q19" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="21" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2809,7 +2797,7 @@
     </row>
     <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="3"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="K23" s="1"/>
@@ -2821,30 +2809,29 @@
       <c r="E24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="26" t="s">
+      <c r="L24" s="23" t="s">
         <v>107</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="Q24" s="27"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -2854,7 +2841,7 @@
         <v>110</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="23" t="s">
         <v>111</v>
       </c>
       <c r="M25" s="7" t="s">
@@ -2863,47 +2850,47 @@
       <c r="N25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Q25" s="21" t="s">
+      <c r="Q25" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="3"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
       <c r="M26" s="7"/>
       <c r="N26" s="2"/>
-      <c r="Q26" s="21"/>
+      <c r="Q26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="30"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -2913,7 +2900,7 @@
         <v>118</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="25" t="s">
         <v>119</v>
       </c>
       <c r="M28" s="7" t="s">
@@ -2924,12 +2911,12 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="K29" s="1"/>
@@ -2941,7 +2928,7 @@
       <c r="E30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>122</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -2963,7 +2950,7 @@
       <c r="E31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -2983,7 +2970,7 @@
     </row>
     <row r="32" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="3"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="K32" s="1"/>
@@ -2995,7 +2982,7 @@
       <c r="E33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>132</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -3017,7 +3004,7 @@
       <c r="E34" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>138</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -3039,7 +3026,7 @@
       <c r="E35" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>143</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -3061,7 +3048,7 @@
       <c r="E36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>148</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -3081,7 +3068,7 @@
     </row>
     <row r="37" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="3"/>
-      <c r="F37" s="10"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="K37" s="1"/>
@@ -3090,7 +3077,7 @@
       <c r="N37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="27" t="s">
         <v>153</v>
       </c>
       <c r="B38" s="6"/>
@@ -3107,7 +3094,7 @@
       <c r="G38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="28" t="s">
         <v>156</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -3123,7 +3110,7 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="27" t="s">
         <v>161</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3149,14 +3136,14 @@
       <c r="N39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>164</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -3175,14 +3162,14 @@
       <c r="N40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>169</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -3204,7 +3191,7 @@
       <c r="E42" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>174</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -3225,7 +3212,7 @@
       <c r="E43" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -3247,7 +3234,7 @@
       <c r="E44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>179</v>
       </c>
       <c r="G44" s="5"/>
@@ -3269,11 +3256,11 @@
       <c r="E45" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>179</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="28" t="s">
         <v>179</v>
       </c>
       <c r="K45" s="1"/>
@@ -3289,7 +3276,7 @@
     </row>
     <row r="46" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="3"/>
-      <c r="F46" s="10"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
       <c r="K46" s="1"/>
@@ -3301,7 +3288,7 @@
       <c r="E47" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>179</v>
       </c>
       <c r="G47" s="5"/>
@@ -3320,7 +3307,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="27" t="s">
         <v>187</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3333,7 +3320,7 @@
       <c r="E48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>191</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -3351,13 +3338,13 @@
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="2"/>
-      <c r="Q48" s="33" t="s">
+      <c r="Q48" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="R48" s="22" t="s">
+      <c r="R48" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="S48" s="22" t="s">
+      <c r="S48" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3371,7 +3358,7 @@
       <c r="E49" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>200</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -3400,7 +3387,7 @@
       <c r="E50" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>195</v>
       </c>
       <c r="G50" s="5"/>
@@ -3416,7 +3403,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="27" t="s">
         <v>209</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -3427,13 +3414,13 @@
       <c r="E52" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="9" t="s">
         <v>212</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H52" s="32" t="s">
+      <c r="H52" s="28" t="s">
         <v>214</v>
       </c>
       <c r="K52" s="1"/>
@@ -3448,7 +3435,7 @@
       <c r="E53" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="9" t="s">
         <v>218</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -3466,7 +3453,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="27" t="s">
         <v>222</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -3474,20 +3461,20 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="9" t="s">
         <v>212</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H54" s="28" t="s">
         <v>220</v>
       </c>
       <c r="K54" s="1"/>
-      <c r="L54" s="13" t="s">
+      <c r="L54" s="12" t="s">
         <v>221</v>
       </c>
       <c r="M54" s="7" t="s">
@@ -3506,13 +3493,13 @@
       <c r="E55" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="9" t="s">
         <v>228</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H55" s="28" t="s">
         <v>230</v>
       </c>
       <c r="K55" s="1"/>
@@ -3524,7 +3511,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="27" t="s">
         <v>232</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3535,13 +3522,13 @@
       <c r="E56" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="9" t="s">
         <v>234</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H56" s="32" t="s">
+      <c r="H56" s="28" t="s">
         <v>236</v>
       </c>
       <c r="K56" s="1"/>
@@ -3556,7 +3543,7 @@
       <c r="E57" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>238</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -3577,7 +3564,7 @@
       <c r="E58" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -3598,7 +3585,7 @@
       <c r="E59" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="9" t="s">
         <v>249</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -3619,7 +3606,7 @@
       <c r="E60" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="9" t="s">
         <v>253</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -3640,7 +3627,7 @@
       <c r="E61" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="9" t="s">
         <v>256</v>
       </c>
       <c r="G61" s="5" t="s">
@@ -3661,7 +3648,7 @@
       <c r="E62" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="9" t="s">
         <v>260</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -3682,7 +3669,7 @@
       <c r="E63" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="9" t="s">
         <v>238</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -3703,7 +3690,7 @@
       <c r="E64" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="9" t="s">
         <v>256</v>
       </c>
       <c r="G64" s="5" t="s">
@@ -3724,7 +3711,7 @@
       <c r="E65" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -3743,321 +3730,321 @@
     </row>
     <row r="66" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
-      <c r="B66" s="34"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35" t="s">
+      <c r="D66" s="31"/>
+      <c r="E66" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="G66" s="36" t="s">
+      <c r="G66" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H66" s="17" t="s">
+      <c r="H66" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M66" s="37" t="s">
+      <c r="M66" s="33" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="F67" s="39" t="s">
+      <c r="F67" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="G67" s="36" t="s">
+      <c r="G67" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H67" s="17" t="s">
+      <c r="H67" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="37" t="s">
+      <c r="M67" s="33" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="H69" s="40" t="s">
+      <c r="H69" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="42" t="s">
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="M69" s="43" t="s">
+      <c r="M69" s="39" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="17"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14" t="s">
+      <c r="B70" s="16"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="H70" s="40" t="s">
+      <c r="H70" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="38" t="s">
+      <c r="I70" s="17"/>
+      <c r="J70" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K70" s="41"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="45" t="s">
+      <c r="K70" s="37"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="G71" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="H71" s="40" t="s">
+      <c r="H71" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="I71" s="46"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="47" t="s">
+      <c r="I71" s="43"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="M71" s="43"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="Q71" s="48" t="s">
+      <c r="M71" s="39"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="Q71" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="R71" s="49" t="s">
+      <c r="R71" s="46" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="H72" s="40" t="s">
+      <c r="H72" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="I72" s="50"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="47" t="s">
+      <c r="I72" s="47"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="M72" s="43" t="s">
+      <c r="M72" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
-      <c r="Q72" s="48" t="s">
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="Q72" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="R72" s="49"/>
+      <c r="R72" s="46"/>
     </row>
     <row r="73" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="36" t="s">
         <v>292</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18" t="s">
+      <c r="D73" s="17"/>
+      <c r="E73" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="F73" s="51" t="s">
+      <c r="F73" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="G73" s="52" t="s">
+      <c r="G73" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="H73" s="17" t="s">
+      <c r="H73" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="I73" s="18" t="s">
+      <c r="I73" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="J73" s="18"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="53" t="s">
+      <c r="J73" s="17"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="M73" s="54" t="s">
+      <c r="M73" s="51" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B74" s="40"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18" t="s">
+      <c r="D74" s="17"/>
+      <c r="E74" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="F74" s="51" t="s">
+      <c r="F74" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="G74" s="52" t="s">
+      <c r="G74" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="H74" s="55" t="s">
+      <c r="H74" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="44"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="54"/>
-      <c r="Q74" s="33"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="51"/>
+      <c r="Q74" s="29"/>
     </row>
     <row r="75" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q75" s="56"/>
+      <c r="Q75" s="53"/>
     </row>
     <row r="76" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
-      <c r="B76" s="34"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F76" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="G76" s="36" t="s">
+      <c r="G76" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="H76" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M76" s="37" t="s">
+      <c r="M76" s="33" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="F77" s="39" t="s">
+      <c r="F77" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="G77" s="36" t="s">
+      <c r="G77" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H77" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M77" s="37" t="s">
+      <c r="M77" s="33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="79" s="58" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+    <row r="79" s="55" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F79" s="57" t="s">
+      <c r="F79" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="12"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="11"/>
       <c r="L79" s="3" t="s">
         <v>311</v>
       </c>
@@ -4065,107 +4052,107 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" s="58" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
+    <row r="80" s="55" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F80" s="57" t="s">
+      <c r="F80" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I80" s="10"/>
-      <c r="J80" s="59" t="s">
+      <c r="I80" s="9"/>
+      <c r="J80" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="60" t="s">
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="57" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="62"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
     </row>
     <row r="82" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="63"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="64" t="s">
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="F82" s="65" t="s">
+      <c r="F82" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="G82" s="66" t="s">
+      <c r="G82" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="H82" s="67" t="s">
+      <c r="H82" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="64"/>
-      <c r="L82" s="68" t="s">
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="M82" s="69" t="s">
+      <c r="M82" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="N82" s="68"/>
+      <c r="N82" s="65"/>
     </row>
     <row r="83" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="64" t="s">
+      <c r="E83" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="F83" s="65" t="s">
+      <c r="F83" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="G83" s="66" t="s">
+      <c r="G83" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="H83" s="67" t="s">
+      <c r="H83" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I83" s="64"/>
-      <c r="J83" s="70" t="s">
+      <c r="I83" s="61"/>
+      <c r="J83" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="K83" s="64"/>
-      <c r="L83" s="68" t="s">
+      <c r="K83" s="61"/>
+      <c r="L83" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="M83" s="69" t="s">
+      <c r="M83" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="N83" s="68"/>
+      <c r="N83" s="65"/>
     </row>
     <row r="84" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="31"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="9" t="s">
         <v>327</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -4181,7 +4168,7 @@
       <c r="L84" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="M84" s="71" t="s">
+      <c r="M84" s="68" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4189,7 +4176,7 @@
       <c r="E85" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="9" t="s">
         <v>334</v>
       </c>
       <c r="G85" s="5" t="s">
@@ -4210,7 +4197,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="27" t="s">
         <v>339</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -4221,13 +4208,13 @@
       <c r="E86" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="9" t="s">
         <v>342</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="H86" s="32" t="s">
+      <c r="H86" s="28" t="s">
         <v>344</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -4242,7 +4229,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="72" t="s">
+      <c r="A87" s="69" t="s">
         <v>347</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -4253,13 +4240,13 @@
       <c r="E87" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="9" t="s">
         <v>253</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H87" s="32" t="s">
+      <c r="H87" s="28" t="s">
         <v>350</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -4277,7 +4264,7 @@
       <c r="E88" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="9" t="s">
         <v>354</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -4289,7 +4276,7 @@
       <c r="I88" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K88" s="39"/>
+      <c r="K88" s="35"/>
       <c r="L88" s="3" t="s">
         <v>357</v>
       </c>
@@ -4298,7 +4285,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="27" t="s">
         <v>359</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -4309,13 +4296,13 @@
       <c r="E89" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="9" t="s">
         <v>362</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="H89" s="32" t="s">
+      <c r="H89" s="28" t="s">
         <v>364</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -4333,7 +4320,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="62" t="s">
+      <c r="A90" s="59" t="s">
         <v>369</v>
       </c>
       <c r="B90" s="6"/>
@@ -4342,7 +4329,7 @@
       <c r="E90" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="9" t="s">
         <v>370</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -4366,7 +4353,7 @@
       <c r="E91" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="9" t="s">
         <v>256</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -4390,7 +4377,7 @@
       <c r="E92" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="9" t="s">
         <v>381</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -4410,11 +4397,11 @@
     </row>
     <row r="93" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="3"/>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="9" t="s">
         <v>179</v>
       </c>
       <c r="G93" s="5"/>
-      <c r="H93" s="32" t="s">
+      <c r="H93" s="28" t="s">
         <v>179</v>
       </c>
       <c r="K93" s="1"/>
@@ -4432,7 +4419,7 @@
       <c r="E94" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="9" t="s">
         <v>390</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -4452,7 +4439,7 @@
     </row>
     <row r="95" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="3"/>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="9" t="s">
         <v>179</v>
       </c>
       <c r="G95" s="5"/>
@@ -4471,7 +4458,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="27" t="s">
         <v>396</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -4482,7 +4469,7 @@
       <c r="E96" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="9" t="s">
         <v>398</v>
       </c>
       <c r="G96" s="5" t="s">
@@ -4500,14 +4487,14 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="31"/>
+      <c r="A97" s="27"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -4525,7 +4512,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="27" t="s">
         <v>396</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -4536,7 +4523,7 @@
       <c r="E98" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F98" s="9" t="s">
         <v>256</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -4554,7 +4541,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="27" t="s">
         <v>400</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -4584,201 +4571,201 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="16" t="s">
         <v>406</v>
       </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18" t="s">
+      <c r="D100" s="17"/>
+      <c r="E100" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="F100" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="G100" s="52" t="s">
+      <c r="G100" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="H100" s="17" t="s">
+      <c r="H100" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="53" t="s">
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="M100" s="53" t="s">
+      <c r="M100" s="50" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="F101" s="51" t="s">
+      <c r="F101" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="G101" s="52" t="s">
+      <c r="G101" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="H101" s="17" t="s">
+      <c r="H101" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I101" s="18"/>
-      <c r="J101" s="73" t="s">
+      <c r="I101" s="17"/>
+      <c r="J101" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="18"/>
+      <c r="K101" s="17"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="74" t="s">
+      <c r="M101" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="F102" s="51" t="s">
+      <c r="F102" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="G102" s="52" t="s">
+      <c r="G102" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="H102" s="17" t="s">
+      <c r="H102" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
       <c r="L102" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="M102" s="75" t="s">
+      <c r="M102" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="16" t="s">
         <v>420</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="F103" s="18" t="s">
+      <c r="F103" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="G103" s="52" t="s">
+      <c r="G103" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="H103" s="17" t="s">
+      <c r="H103" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
       <c r="L103" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="M103" s="76" t="s">
+      <c r="M103" s="73" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="16" t="s">
         <v>427</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="F104" s="18" t="s">
+      <c r="F104" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="G104" s="52" t="s">
+      <c r="G104" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="H104" s="17" t="s">
+      <c r="H104" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
       <c r="L104" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="M104" s="76" t="s">
+      <c r="M104" s="73" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="16" t="s">
         <v>429</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="G105" s="52" t="s">
+      <c r="G105" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="H105" s="17" t="s">
+      <c r="H105" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
       <c r="L105" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="M105" s="76" t="s">
+      <c r="M105" s="73" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="F106" s="18" t="s">
+      <c r="F106" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="G106" s="52" t="s">
+      <c r="G106" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="H106" s="17" t="s">
+      <c r="H106" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
       <c r="L106" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="M106" s="76" t="s">
+      <c r="M106" s="73" t="s">
         <v>434</v>
       </c>
     </row>
